--- a/Running projects/TOMO II/001- invoice for Mobilization advance..xlsx
+++ b/Running projects/TOMO II/001- invoice for Mobilization advance..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\TOMO II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DD6AF-B824-4DAA-99F2-7B37AFE016AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D189D-1056-404C-B361-47FA3B9BFBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">Invoice </t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Request of Mobilization Advance HVAC &amp; Ancillary Works for Patient Aid Foundation, TOMO-II Karachi</t>
+  </si>
+  <si>
+    <t>Tax 8%</t>
+  </si>
+  <si>
+    <t>Chq amount</t>
   </si>
 </sst>
 </file>
@@ -419,6 +425,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,9 +435,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,7 +1072,7 @@
   <dimension ref="A11:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1129,12 +1135,12 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="9"/>
@@ -1143,12 +1149,12 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1169,10 +1175,10 @@
       <c r="B22" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:6" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
@@ -1210,7 +1216,7 @@
       <c r="C26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="45">
         <f>D24*20%</f>
         <v>1652600</v>
       </c>
@@ -1224,8 +1230,13 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="42">
+        <f>D26*8%</f>
+        <v>132208</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -1234,8 +1245,13 @@
       <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="43">
+        <f>D26-D28</f>
+        <v>1520392</v>
+      </c>
       <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
